--- a/Extracted Excel/BIANCHI.xlsx
+++ b/Extracted Excel/BIANCHI.xlsx
@@ -777,12 +777,278 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:42:40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000375962%2ForgAdmin%2Fbisut000000000003184%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Richard Townsend</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BIANCHI_153</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CAT -- Operator Training: Hydraulic Excavator</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:42:45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000375962%2ForgAdmin%2Fbisut000000000003184%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Richard Townsend</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BIANCHI_153</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CAT -- Operator Training: Skid Steer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:42:51</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000375962%2ForgAdmin%2Fbisut000000000003184%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Richard Townsend</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BIANCHI_153</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Interactive Spotter Training</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:42:57</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000375962%2ForgAdmin%2Fbisut000000000003184%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Richard Townsend</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BIANCHI_153</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Safety Orientation Policy</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:43:03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000375962%2ForgAdmin%2Fbisut000000000003184%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Richard Townsend</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BIANCHI_153</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spotter and Blind Spot Orientation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:43:09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000375962%2ForgAdmin%2Fbisut000000000003184%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Richard Townsend</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BIANCHI_153</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wanzek Site Solar Safety Orientation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
     <row r="14"/>
     <row r="15"/>
     <row r="16"/>
